--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8845</v>
+        <v>-11.7597</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.592199999999997</v>
+        <v>4.717699999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.34140000000003</v>
+        <v>-22.28100000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.70909999999999</v>
+        <v>-21.8271</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.559</v>
+        <v>-21.5636</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.748299999999993</v>
+        <v>5.059099999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.86319999999998</v>
+        <v>-21.87279999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6.157200000000001</v>
+        <v>6.604000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.8383</v>
+        <v>-11.8307</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.6417</v>
+        <v>-11.3514</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.026499999999997</v>
+        <v>8.864400000000003</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.35219999999999</v>
+        <v>-13.1888</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.128000000000005</v>
+        <v>4.937600000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.973599999999999</v>
+        <v>5.050100000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.799299999999999</v>
+        <v>5.0898</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.22609999999999</v>
+        <v>-13.3054</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.66199999999999</v>
+        <v>-19.49369999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.3614</v>
+        <v>-13.1658</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.214499999999997</v>
+        <v>9.144399999999989</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.13780000000001</v>
+        <v>-12.12560000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.52869999999999</v>
+        <v>-13.66309999999998</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.3075</v>
+        <v>-12.2308</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.991400000000001</v>
+        <v>4.611000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.6516</v>
+        <v>-22.4148</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.36329999999999</v>
+        <v>-12.3502</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-11.9383</v>
+        <v>-12.1855</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48490000000001</v>
+        <v>-21.45170000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.507899999999999</v>
+        <v>4.491999999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.5491</v>
+        <v>-12.2189</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.131299999999998</v>
+        <v>6.188000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.03299999999998</v>
+        <v>-19.97609999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.04609999999998</v>
+        <v>-20.15919999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.7887</v>
+        <v>-21.9575</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6616</v>
+        <v>-21.91449999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.859799999999995</v>
+        <v>5.241599999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.524399999999996</v>
+        <v>4.391299999999998</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.3098</v>
+        <v>-13.0379</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-9.918000000000001</v>
+        <v>-10.10750000000001</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.07480000000001</v>
+        <v>-11.8181</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>4.958500000000006</v>
+        <v>5.131400000000008</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.202399999999999</v>
+        <v>6.7342</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.484299999999996</v>
+        <v>9.257999999999988</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.0289</v>
+        <v>-13.42320000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.574900000000007</v>
+        <v>8.600700000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
